--- a/comp_stat.xlsx
+++ b/comp_stat.xlsx
@@ -86,9 +86,6 @@
     <t>Office_Paper</t>
   </si>
   <si>
-    <t>Magazines_</t>
-  </si>
-  <si>
     <t>third_Class_Mail</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>Mass of residuals</t>
+  </si>
+  <si>
+    <t>Magazines</t>
   </si>
 </sst>
 </file>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,73 +974,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S1" t="s">
-        <v>79</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>82</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>83</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>84</v>
-      </c>
-      <c r="W1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B16">
         <v>1000</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1000</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1000</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>1000</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1000</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1000</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1000</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>1000</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>1000</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1000</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1000</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>1000</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>1000</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>1000</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>1000</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>1000</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>1000</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>1000</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>1000</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>1000</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>1000</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>1000</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>1000</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>1000</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>1000</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>1000</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>1000</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>1000</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>1000</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>1000</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>1000</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>1000</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>1000</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>1000</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>1000</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>1000</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>1000</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>1000</v>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>1000</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>1000</v>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>1000</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>1000</v>
@@ -5121,7 +5121,7 @@
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>1000</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>1000</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>1000</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>1000</v>
